--- a/Logboeken/Roels_Wolf.xlsx
+++ b/Logboeken/Roels_Wolf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\School\Toegepaste Informatica\SoftwareDevelopmentProject\Rummikub-main\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wolf\Documents\School\2020-2021\project\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4BF4D-F9E9-4D95-9F4D-1BE468935302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2F438-B9F2-4A39-859F-DCDC5E06FEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5268" yWindow="2700" windowWidth="23040" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Logboek</t>
+  </si>
+  <si>
+    <t>Opstellen mysql databank en VP teamwork</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,18 +483,18 @@
   <dimension ref="C3:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
@@ -501,7 +507,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>44235</v>
       </c>
@@ -549,7 +555,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>44236</v>
       </c>
@@ -568,18 +574,28 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>44242</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -590,7 +606,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -601,7 +617,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -612,7 +628,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -623,7 +639,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -634,7 +650,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -645,7 +661,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -656,7 +672,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -667,7 +683,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -678,7 +694,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -689,7 +705,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -700,7 +716,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -711,7 +727,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -722,7 +738,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -733,7 +749,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -744,7 +760,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -755,7 +771,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -766,7 +782,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -777,7 +793,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -788,7 +804,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -799,7 +815,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -810,7 +826,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -821,7 +837,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -832,7 +848,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -843,7 +859,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -854,13 +870,13 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E36">
         <f>SUM(E5:E32)</f>
-        <v>240</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
